--- a/practice.xlsx
+++ b/practice.xlsx
@@ -2,45 +2,28 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022年11月" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
-    <font>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
-      <family val="3"/>
-      <sz val="6"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -52,14 +35,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -69,22 +45,13 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -233,7 +200,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -268,7 +234,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -292,6 +257,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
@@ -302,31 +268,31 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
+                <a:shade val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
+              <a:shade val="95000"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
@@ -348,7 +314,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -406,7 +372,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
+                <a:shade val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -419,12 +385,13 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
+                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -444,23 +411,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="0"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
-  <cols>
-    <col width="13.625" bestFit="1" customWidth="1" style="7" min="1" max="4"/>
-    <col width="13.625" bestFit="1" customWidth="1" style="3" min="5" max="5"/>
-    <col width="13.625" bestFit="1" customWidth="1" style="7" min="6" max="6"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1" s="7">
+    <row r="1">
       <c r="A1" t="inlineStr">
         <is>
           <t>2022年11月</t>
@@ -481,319 +443,225 @@
           <t>メニュー3</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>合計距離(km)</t>
         </is>
       </c>
-      <c r="F1" s="6" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>感想</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" s="7">
+    <row r="2">
       <c r="A2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E2" s="4" t="n"/>
-      <c r="F2" s="6" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1" s="7">
+    </row>
+    <row r="3">
       <c r="A3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E3" s="4" t="n"/>
-      <c r="F3" s="6" t="n"/>
-    </row>
-    <row r="4" ht="18.75" customHeight="1" s="7">
+    </row>
+    <row r="4">
       <c r="A4" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E4" s="4" t="n"/>
-      <c r="F4" s="6" t="n"/>
-    </row>
-    <row r="5" ht="18.75" customHeight="1" s="7">
+    </row>
+    <row r="5">
       <c r="A5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E5" s="4" t="n"/>
-      <c r="F5" s="6" t="n"/>
-    </row>
-    <row r="6" ht="18.75" customHeight="1" s="7">
+    </row>
+    <row r="6">
       <c r="A6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E6" s="4" t="n"/>
-      <c r="F6" s="6" t="n"/>
-    </row>
-    <row r="7" ht="18.75" customHeight="1" s="7">
+    </row>
+    <row r="7">
       <c r="A7" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E7" s="4" t="n"/>
-      <c r="F7" s="6" t="n"/>
-    </row>
-    <row r="8" ht="18.75" customHeight="1" s="7">
+    </row>
+    <row r="8">
       <c r="A8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E8" s="4" t="n"/>
-      <c r="F8" s="6" t="n"/>
-    </row>
-    <row r="9" ht="18.75" customHeight="1" s="7">
+    </row>
+    <row r="9">
       <c r="A9" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E9" s="4" t="n"/>
-      <c r="F9" s="6" t="n"/>
-    </row>
-    <row r="10" ht="18.75" customHeight="1" s="7">
+    </row>
+    <row r="10">
       <c r="A10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E10" s="4" t="n"/>
-      <c r="F10" s="6" t="n"/>
-    </row>
-    <row r="11" ht="18.75" customHeight="1" s="7">
+    </row>
+    <row r="11">
       <c r="A11" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E11" s="4" t="n"/>
-      <c r="F11" s="6" t="n"/>
-    </row>
-    <row r="12" ht="18.75" customHeight="1" s="7">
+    </row>
+    <row r="12">
       <c r="A12" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E12" s="4" t="n"/>
-      <c r="F12" s="6" t="n"/>
-    </row>
-    <row r="13" ht="18.75" customHeight="1" s="7">
+    </row>
+    <row r="13">
       <c r="A13" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E13" s="4" t="n"/>
-      <c r="F13" s="6" t="n"/>
-    </row>
-    <row r="14" ht="18.75" customHeight="1" s="7">
+    </row>
+    <row r="14">
       <c r="A14" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E14" s="4" t="n"/>
-      <c r="F14" s="6" t="n"/>
-    </row>
-    <row r="15" ht="18.75" customHeight="1" s="7">
+    </row>
+    <row r="15">
       <c r="A15" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E15" s="4" t="n"/>
-      <c r="F15" s="6" t="n"/>
-    </row>
-    <row r="16" ht="18.75" customHeight="1" s="7">
+    </row>
+    <row r="16">
       <c r="A16" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="E16" s="4" t="n"/>
-      <c r="F16" s="6" t="n"/>
-    </row>
-    <row r="17" ht="18.75" customHeight="1" s="7">
+    </row>
+    <row r="17">
       <c r="A17" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E17" s="4" t="n"/>
-      <c r="F17" s="6" t="n"/>
-    </row>
-    <row r="18" ht="18.75" customHeight="1" s="7">
+    </row>
+    <row r="18">
       <c r="A18" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="E18" s="4" t="n"/>
-      <c r="F18" s="6" t="n"/>
-    </row>
-    <row r="19" ht="18.75" customHeight="1" s="7">
+    </row>
+    <row r="19">
       <c r="A19" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="E19" s="4" t="n"/>
-      <c r="F19" s="6" t="n"/>
-    </row>
-    <row r="20" ht="18.75" customHeight="1" s="7">
+    </row>
+    <row r="20">
       <c r="A20" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="E20" s="4" t="n"/>
-      <c r="F20" s="6" t="n"/>
-    </row>
-    <row r="21" ht="18.75" customHeight="1" s="7">
+    </row>
+    <row r="21">
       <c r="A21" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="E21" s="4" t="n"/>
-      <c r="F21" s="6" t="n"/>
-    </row>
-    <row r="22" ht="18.75" customHeight="1" s="7">
+    </row>
+    <row r="22">
       <c r="A22" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="E22" s="4" t="n"/>
-      <c r="F22" s="6" t="n"/>
-    </row>
-    <row r="23" ht="18.75" customHeight="1" s="7">
+    </row>
+    <row r="23">
       <c r="A23" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="E23" s="4" t="n"/>
-      <c r="F23" s="6" t="n"/>
-    </row>
-    <row r="24" ht="18.75" customHeight="1" s="7">
+    </row>
+    <row r="24">
       <c r="A24" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="E24" s="4" t="n"/>
-      <c r="F24" s="6" t="n"/>
-    </row>
-    <row r="25" ht="18.75" customHeight="1" s="7">
+    </row>
+    <row r="25">
       <c r="A25" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="E25" s="4" t="n"/>
-      <c r="F25" s="6" t="n"/>
-    </row>
-    <row r="26" ht="18.75" customHeight="1" s="7">
+    </row>
+    <row r="26">
       <c r="A26" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="E26" s="4" t="n"/>
-      <c r="F26" s="6" t="n"/>
-    </row>
-    <row r="27" ht="18.75" customHeight="1" s="7">
+    </row>
+    <row r="27">
       <c r="A27" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="E27" s="4" t="n"/>
-      <c r="F27" s="6" t="n"/>
-    </row>
-    <row r="28" ht="19.5" customHeight="1" s="7">
+    </row>
+    <row r="28">
       <c r="A28" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2kjog</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>10000m</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>2kjog</t>
-        </is>
-      </c>
-      <c r="E28" s="5" t="n">
-        <v>14</v>
-      </c>
-      <c r="F28" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">10000m40分21秒。伴走が難しかった。(過去一で)
-だが、安全に誘導できてよかった。
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="29" ht="18.75" customHeight="1" s="7">
+    </row>
+    <row r="29">
       <c r="A29" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="E29" s="4" t="n"/>
-      <c r="F29" s="6" t="n"/>
-    </row>
-    <row r="30" ht="18.75" customHeight="1" s="7">
+    </row>
+    <row r="30">
       <c r="A30" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="E30" s="4" t="n"/>
-      <c r="F30" s="6" t="n"/>
-    </row>
-    <row r="31" ht="18.75" customHeight="1" s="7">
+    </row>
+    <row r="31">
       <c r="A31" t="inlineStr">
         <is>
           <t>30</t>
         </is>
-      </c>
-      <c r="E31" s="1" t="n"/>
-      <c r="F31" s="6" t="n"/>
-    </row>
-    <row r="32" ht="21" customHeight="1" s="7">
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>今月合計(km)</t>
-        </is>
-      </c>
-      <c r="E32" s="1">
-        <f>SUM(E2:E31)</f>
-        <v/>
       </c>
     </row>
   </sheetData>
@@ -830,6 +698,305 @@
     <mergeCell ref="F30:N30"/>
     <mergeCell ref="F31:N31"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>test1</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>メニュー1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>メニュー2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>メニュー3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>合計距離(km)</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>感想</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="31">
+    <mergeCell ref="F1:N1"/>
+    <mergeCell ref="F2:N2"/>
+    <mergeCell ref="F3:N3"/>
+    <mergeCell ref="F4:N4"/>
+    <mergeCell ref="F5:N5"/>
+    <mergeCell ref="F6:N6"/>
+    <mergeCell ref="F7:N7"/>
+    <mergeCell ref="F8:N8"/>
+    <mergeCell ref="F9:N9"/>
+    <mergeCell ref="F10:N10"/>
+    <mergeCell ref="F11:N11"/>
+    <mergeCell ref="F12:N12"/>
+    <mergeCell ref="F13:N13"/>
+    <mergeCell ref="F14:N14"/>
+    <mergeCell ref="F15:N15"/>
+    <mergeCell ref="F16:N16"/>
+    <mergeCell ref="F17:N17"/>
+    <mergeCell ref="F18:N18"/>
+    <mergeCell ref="F19:N19"/>
+    <mergeCell ref="F20:N20"/>
+    <mergeCell ref="F21:N21"/>
+    <mergeCell ref="F22:N22"/>
+    <mergeCell ref="F23:N23"/>
+    <mergeCell ref="F24:N24"/>
+    <mergeCell ref="F25:N25"/>
+    <mergeCell ref="F26:N26"/>
+    <mergeCell ref="F27:N27"/>
+    <mergeCell ref="F28:N28"/>
+    <mergeCell ref="F29:N29"/>
+    <mergeCell ref="F30:N30"/>
+    <mergeCell ref="F31:N31"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>